--- a/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091FF3D-2079-4E07-A52A-A9A9EA4B8B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15CF05-54B5-469D-8F39-9831DAEEB8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -356,9 +356,6 @@
     <t>Re-tested</t>
   </si>
   <si>
-    <t>not yet</t>
-  </si>
-  <si>
     <t>Varga Gabriela</t>
   </si>
   <si>
@@ -549,6 +546,30 @@
   </si>
   <si>
     <t>actual</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>pisica neagra</t>
+  </si>
+  <si>
+    <t>Nu exista metoda equals pentru parts sau products</t>
+  </si>
+  <si>
+    <t>Implementarea metodelor</t>
+  </si>
+  <si>
+    <t>Nu se valideaza datele pe backend</t>
+  </si>
+  <si>
+    <t>Adaugarea codului de validare datelor in metoda</t>
+  </si>
+  <si>
+    <t>Prinderea exceptiilor de la validare din service in UI</t>
+  </si>
+  <si>
+    <t>Adaugrea codului</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1161,6 +1182,90 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,6 +1281,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1185,21 +1305,15 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,35 +1323,86 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1245,268 +1410,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1832,12 +1820,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1845,11 +1833,11 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H3" s="2"/>
@@ -1865,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2">
         <v>237</v>
@@ -1876,7 +1864,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2">
         <v>237</v>
@@ -1964,7 +1952,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -2008,21 +1996,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="B24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="B24" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C26" s="7"/>
@@ -2051,472 +2039,472 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="17"/>
-    <col min="2" max="2" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.7265625" style="17"/>
-    <col min="16" max="16" width="29.453125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="5" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="8.7265625" style="9"/>
+    <col min="2" max="2" width="10.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.7265625" style="9"/>
+    <col min="16" max="16" width="29.453125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="5" style="9" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="3" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="G5" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="52"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="P7" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="55"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="12">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="12">
+        <v>100</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="46"/>
+    </row>
+    <row r="9" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="D9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="12">
+        <v>-2000</v>
+      </c>
+      <c r="K9" s="12">
+        <v>10</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>100</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="46"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>10</v>
+      </c>
+      <c r="M10" s="12">
+        <v>100</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="46"/>
+    </row>
+    <row r="11" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1000000000</v>
+      </c>
+      <c r="K11" s="12">
         <v>20</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="G5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="26">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="26">
-        <v>2</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26" t="s">
+      <c r="L11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="12">
+        <v>100</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="46"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="11">
+        <v>6</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="11">
+        <v>7</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="29">
-        <v>5000</v>
-      </c>
-      <c r="K8" s="29">
-        <v>100</v>
-      </c>
-      <c r="L8" s="29">
-        <v>0</v>
-      </c>
-      <c r="M8" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="31"/>
-    </row>
-    <row r="9" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26">
-        <v>3</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="G9" s="20">
-        <v>2</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="29">
-        <v>-2000</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="D13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="46"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="11">
         <v>10</v>
       </c>
-      <c r="L9" s="29">
-        <v>0</v>
-      </c>
-      <c r="M9" s="29">
-        <v>100</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="31"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="26">
-        <v>4</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="20">
-        <v>3</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="29">
-        <v>1000000000</v>
-      </c>
-      <c r="K10" s="29">
-        <v>0</v>
-      </c>
-      <c r="L10" s="29">
-        <v>10</v>
-      </c>
-      <c r="M10" s="29">
-        <v>100</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="31"/>
-    </row>
-    <row r="11" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26">
-        <v>5</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="G11" s="20">
-        <v>4</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="29">
-        <v>1000000000</v>
-      </c>
-      <c r="K11" s="29">
-        <v>20</v>
-      </c>
-      <c r="L11" s="29">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="29">
-        <v>100</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="31"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="26">
-        <v>6</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="26">
-        <v>7</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="26">
-        <v>8</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="26">
-        <v>9</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="26">
-        <v>10</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="26">
+      <c r="B17" s="11">
         <v>11</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="26">
+      <c r="B18" s="11">
         <v>12</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="26">
+      <c r="B19" s="11">
         <v>13</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="31"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="26">
+      <c r="B20" s="11">
         <v>14</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2536,16 +2524,6 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -2561,6 +2539,16 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2574,542 +2562,538 @@
   <dimension ref="B1:R27"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:R11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="54"/>
-    <col min="2" max="2" width="11.26953125" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="54" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" style="54" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="54"/>
-    <col min="9" max="9" width="10" style="54" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="54" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.26953125" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" style="54" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.26953125" style="54" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" style="54" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="54"/>
+    <col min="1" max="1" width="8.7265625" style="18"/>
+    <col min="2" max="2" width="11.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="18" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="18"/>
+    <col min="9" max="9" width="10" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="B3" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="G5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61" t="s">
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="63"/>
+      <c r="R6" s="74"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="64">
+      <c r="B7" s="65">
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="74"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="66"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="13">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="13">
+        <v>10</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="13">
+        <v>100</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="77"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="66"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="13">
+        <v>100000</v>
+      </c>
+      <c r="M9" s="13">
+        <v>10</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>100</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="77"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="66"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="68" t="s">
+      <c r="G10" s="19">
+        <v>3</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="M10" s="13">
+        <v>100</v>
+      </c>
+      <c r="N10" s="13">
+        <v>100</v>
+      </c>
+      <c r="O10" s="13">
+        <v>100</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="63"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="68">
-        <v>1</v>
-      </c>
-      <c r="H8" s="37">
-        <v>1</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="37">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="37">
+      <c r="R10" s="77"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="66"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
+      <c r="H11" s="13">
+        <v>4</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="13">
+        <v>9</v>
+      </c>
+      <c r="N11" s="13">
         <v>10</v>
       </c>
-      <c r="N8" s="37">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="37">
+      <c r="O11" s="13">
         <v>100</v>
       </c>
-      <c r="P8" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="50"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="68">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="77"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="67"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="65">
         <v>2</v>
       </c>
-      <c r="H9" s="37">
-        <v>2</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="37">
-        <v>100000</v>
-      </c>
-      <c r="M9" s="37">
-        <v>10</v>
-      </c>
-      <c r="N9" s="37">
-        <v>0</v>
-      </c>
-      <c r="O9" s="37">
+      <c r="C13" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="50"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="68">
+      <c r="G13" s="19"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="65">
         <v>3</v>
       </c>
-      <c r="H10" s="37">
-        <v>3</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="37">
-        <v>2000</v>
-      </c>
-      <c r="M10" s="37">
-        <v>100</v>
-      </c>
-      <c r="N10" s="37">
-        <v>100</v>
-      </c>
-      <c r="O10" s="37">
-        <v>100</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="50"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="68">
-        <v>4</v>
-      </c>
-      <c r="H11" s="37">
-        <v>4</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="37">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="37">
-        <v>9</v>
-      </c>
-      <c r="N11" s="37">
-        <v>10</v>
-      </c>
-      <c r="O11" s="37">
-        <v>100</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" s="50"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="50"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="64">
-        <v>2</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="50"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="50"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="64">
-        <v>3</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="66"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="50"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="37" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="77"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="66"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="50"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="50"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="77"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="37"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="50"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="13"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="77"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="37"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="50"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="13"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="77"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="37"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="50"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="13"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="77"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="37"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="50"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="13"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="77"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="69"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="69"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -3122,7 +3106,6 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:M25"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="Q6:R6"/>
@@ -3150,6 +3133,7 @@
     <mergeCell ref="I26:M26"/>
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3162,472 +3146,484 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:P20"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="8.7265625" style="42"/>
-    <col min="6" max="6" width="12.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="42"/>
-    <col min="12" max="12" width="9.81640625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="30.26953125" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="42" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="42"/>
+    <col min="1" max="5" width="8.7265625" style="15"/>
+    <col min="6" max="6" width="12.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="15"/>
+    <col min="12" max="12" width="9.81640625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="79" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="79"/>
+      <c r="N4" s="85"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="H5" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="I5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="J5" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="K5" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="13">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="13">
+        <v>100</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="K6" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="87">
-        <v>1</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="90">
-        <v>5000</v>
-      </c>
-      <c r="H6" s="90">
-        <v>100</v>
-      </c>
-      <c r="I6" s="90">
-        <v>0</v>
-      </c>
-      <c r="J6" s="90">
-        <v>1000000</v>
-      </c>
-      <c r="K6" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="36" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="93">
+      <c r="B7" s="25">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="90">
+      <c r="F7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="13">
         <v>-2000</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="13">
         <v>10</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="13">
         <v>0</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="13">
         <v>100</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="93"/>
+      <c r="N7" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="93">
+      <c r="B8" s="25">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="94" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000000</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>10</v>
+      </c>
+      <c r="J8" s="13">
+        <v>100</v>
+      </c>
+      <c r="K8" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="90">
-        <v>1000000000</v>
-      </c>
-      <c r="H8" s="90">
-        <v>0</v>
-      </c>
-      <c r="I8" s="90">
-        <v>10</v>
-      </c>
-      <c r="J8" s="90">
-        <v>100</v>
-      </c>
-      <c r="K8" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="93"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="93">
+      <c r="B9" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="93" t="s">
+      <c r="C9" s="96"/>
+      <c r="D9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="90">
+      <c r="F9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="13">
         <v>1000000000</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="13">
         <v>20</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="13">
         <v>-1</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="13">
         <v>100</v>
       </c>
-      <c r="K9" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="93"/>
+      <c r="K9" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="77"/>
+      <c r="M9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="93">
+      <c r="B10" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="37">
+      <c r="E10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="13">
         <v>5000</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="13">
         <v>10</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="13">
         <v>-1</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="13">
         <v>100</v>
       </c>
-      <c r="K10" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="93"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="93">
+      <c r="B11" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="94" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="37">
+      <c r="E11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="13">
         <v>100000</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="13">
         <v>10</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="13">
         <v>100</v>
       </c>
-      <c r="K11" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="93"/>
+      <c r="K11" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="84"/>
+      <c r="M11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="93">
+      <c r="B12" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="37">
+      <c r="E12" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13">
         <v>2000</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="13">
         <v>100</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="13">
         <v>100</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="13">
         <v>100</v>
       </c>
-      <c r="K12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="93"/>
+      <c r="K12" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="84"/>
+      <c r="M12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="95">
+      <c r="B13" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97" t="s">
+      <c r="C13" s="97"/>
+      <c r="D13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="37">
+      <c r="E13" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="13">
         <v>1000</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="13">
         <v>9</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="13">
         <v>10</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="13">
         <v>100</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="95"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="38"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M16" s="38"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104" t="s">
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="101" t="s">
+      <c r="H17" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="101" t="s">
+      <c r="I17" s="95"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="105"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="103"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
     </row>
     <row r="18" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="85" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="109" t="s">
@@ -3639,23 +3635,23 @@
       <c r="H18" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="112"/>
-      <c r="J18" s="108" t="s">
+      <c r="I18" s="98"/>
+      <c r="J18" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="108" t="s">
+      <c r="K18" s="85" t="s">
         <v>56</v>
       </c>
       <c r="L18" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="108" t="s">
+      <c r="N18" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="108" t="s">
+      <c r="O18" s="85" t="s">
         <v>56</v>
       </c>
       <c r="P18" s="109" t="s">
@@ -3663,65 +3659,149 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="109"/>
       <c r="G19" s="110"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="109"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
       <c r="P19" s="109"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" s="117" t="s">
+    <row r="20" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="118">
+      <c r="C20" s="32">
         <v>8</v>
       </c>
-      <c r="D20" s="119">
+      <c r="D20" s="33">
+        <v>0</v>
+      </c>
+      <c r="E20" s="33">
+        <v>8</v>
+      </c>
+      <c r="F20" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="16">
+        <v>8</v>
+      </c>
+      <c r="K20" s="33">
         <v>5</v>
       </c>
-      <c r="E20" s="119">
+      <c r="L20" s="34">
         <v>3</v>
       </c>
-      <c r="F20" s="120"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="43">
+      <c r="M20" s="35"/>
+      <c r="N20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="32">
+        <v>8</v>
+      </c>
+      <c r="D21" s="33">
+        <v>5</v>
+      </c>
+      <c r="E21" s="33">
         <v>3</v>
       </c>
-      <c r="K20" s="119">
+      <c r="F21" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="16">
         <v>3</v>
       </c>
-      <c r="L20" s="120">
+      <c r="K21" s="33">
+        <v>3</v>
+      </c>
+      <c r="L21" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="43">
+      <c r="M21" s="35"/>
+      <c r="N21" s="16">
         <v>5</v>
       </c>
-      <c r="O20" s="119">
+      <c r="O21" s="33">
         <v>5</v>
       </c>
-      <c r="P20" s="120">
+      <c r="P21" s="34">
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="32">
+        <v>8</v>
+      </c>
+      <c r="D22" s="33">
+        <v>8</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0</v>
+      </c>
+      <c r="L22" s="34">
+        <v>0</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="16">
+        <v>8</v>
+      </c>
+      <c r="O22" s="33">
+        <v>8</v>
+      </c>
+      <c r="P22" s="34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="O18:O19"/>
@@ -3730,8 +3810,6 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="B18:B19"/>
@@ -3759,6 +3837,8 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="B3:N3"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15CF05-54B5-469D-8F39-9831DAEEB8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFDDB7B-A04B-47AF-BA10-33F60A17064D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="125">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -170,6 +170,372 @@
   </si>
   <si>
     <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
+  </si>
+  <si>
+    <t>Observații</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
+  </si>
+  <si>
+    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
+  </si>
+  <si>
+    <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
+  </si>
+  <si>
+    <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
+  </si>
+  <si>
+    <t>EC Identification</t>
+  </si>
+  <si>
+    <t>EC-based TCs</t>
+  </si>
+  <si>
+    <t>No. EC</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Valid EC</t>
+  </si>
+  <si>
+    <t>Non-valid EC</t>
+  </si>
+  <si>
+    <t>No. TCxx_EC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>input data</t>
+  </si>
+  <si>
+    <t>output data</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>2,3,2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BVA Condition</t>
+  </si>
+  <si>
+    <t>BVA Condition-based TCs</t>
+  </si>
+  <si>
+    <t>Crt. No.</t>
+  </si>
+  <si>
+    <t>No TCxx_BVA</t>
+  </si>
+  <si>
+    <t>BVA condition</t>
+  </si>
+  <si>
+    <t>Correlated TC</t>
+  </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>BBT TCs</t>
+  </si>
+  <si>
+    <t>Final        TC No.</t>
+  </si>
+  <si>
+    <t>Req. ID</t>
+  </si>
+  <si>
+    <t>ECP TCs</t>
+  </si>
+  <si>
+    <t>BVA TCs</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>TC1_ECP</t>
+  </si>
+  <si>
+    <t>TC3_ECP</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Re-testing</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>#TCs to be run</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#TCs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#TCs    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>failed</t>
+    </r>
+  </si>
+  <si>
+    <t>#Bugs</t>
+  </si>
+  <si>
+    <t>#Fixed Bugs</t>
+  </si>
+  <si>
+    <t>Re-tested</t>
+  </si>
+  <si>
+    <t>Varga Gabriela</t>
+  </si>
+  <si>
+    <t>Voina Marius</t>
+  </si>
+  <si>
+    <t>addProduct(String name, double price, int inStock, int min, int  max, ObservableList&lt;Part&gt; addParts)</t>
+  </si>
+  <si>
+    <t>max este mai mare sau egal dacet min</t>
+  </si>
+  <si>
+    <t>inStock este mai mare sau egal decat min</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 7</t>
+  </si>
+  <si>
+    <t>nume</t>
+  </si>
+  <si>
+    <t>pret</t>
+  </si>
+  <si>
+    <t>inStock</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>addParts</t>
+  </si>
+  <si>
+    <t>produs adaugat</t>
+  </si>
+  <si>
+    <t>2, 3, 5, 7</t>
+  </si>
+  <si>
+    <t>"ghinion"</t>
+  </si>
+  <si>
+    <t>1, 3, 5, 8</t>
+  </si>
+  <si>
+    <t>cioburi de oglinda</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>1, 3, 6, 7</t>
+  </si>
+  <si>
+    <t>"fericire"</t>
+  </si>
+  <si>
+    <t>bani, prieteni</t>
+  </si>
+  <si>
+    <t>Error message-</t>
+  </si>
+  <si>
+    <t>"rabdare"</t>
+  </si>
+  <si>
+    <t>"IQ"</t>
+  </si>
+  <si>
+    <t>fericire, timp liber</t>
+  </si>
+  <si>
+    <t>01. min = -1</t>
+  </si>
+  <si>
+    <t>02. min = 0</t>
+  </si>
+  <si>
+    <t>03. min = 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Parametrii </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="30"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>min, max si inStack; Condiţii pentru aceşti parametri de intrare: min, max si inStock sunt valide daca min &lt;= inStock &lt;= max, unde min, max reale pozitive, iar inStock natural.</t>
+    </r>
+  </si>
+  <si>
+    <t>min este pozitiv</t>
+  </si>
+  <si>
+    <t>min nu e pozitiv</t>
+  </si>
+  <si>
+    <t>pretul este pozitiv</t>
+  </si>
+  <si>
+    <t>pretul nu este pozitiv</t>
+  </si>
+  <si>
+    <t>min este pozitiv si &lt;= INT_MAX - 1</t>
+  </si>
+  <si>
+    <t>04. min = INT_MAX - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05. min = INT_MAX </t>
+  </si>
+  <si>
+    <t>06. min = INT_MAX + 1</t>
+  </si>
+  <si>
+    <t>min &lt;= max</t>
+  </si>
+  <si>
+    <t>08. min = max</t>
+  </si>
+  <si>
+    <t>07. min = max - 1</t>
+  </si>
+  <si>
+    <t>09. min = max + 1</t>
+  </si>
+  <si>
+    <t>creier</t>
+  </si>
+  <si>
+    <t>max &gt;= min</t>
+  </si>
+  <si>
+    <t>max &lt; min</t>
+  </si>
+  <si>
+    <t>inStock &gt;= min</t>
+  </si>
+  <si>
+    <t>inStock &lt; min</t>
+  </si>
+  <si>
+    <t>10. inStock = min-1</t>
+  </si>
+  <si>
+    <t>11. inStock = min</t>
+  </si>
+  <si>
+    <t>12. inStock = min + 1</t>
+  </si>
+  <si>
+    <t>TC2_ECP</t>
+  </si>
+  <si>
+    <t>TC4_ECP</t>
+  </si>
+  <si>
+    <t>TC1_BVA</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
+  </si>
+  <si>
+    <t>TC8_BVA</t>
+  </si>
+  <si>
+    <t>TC10_BVA</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>familie</t>
+  </si>
+  <si>
+    <t>pisica neagra</t>
+  </si>
+  <si>
+    <t>Nu exista metoda equals pentru parts sau products</t>
+  </si>
+  <si>
+    <t>Implementarea metodelor</t>
+  </si>
+  <si>
+    <t>Nu se valideaza datele pe backend</t>
+  </si>
+  <si>
+    <t>Adaugarea codului de validare datelor in metoda</t>
+  </si>
+  <si>
+    <t>Prinderea exceptiilor de la validare din service in UI</t>
+  </si>
+  <si>
+    <t>Adaugrea codului</t>
   </si>
   <si>
     <r>
@@ -190,386 +556,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
+      <t xml:space="preserve"> addProduct(String name, double price, int inStock, int min, int  max, ObservableList&lt;Part&gt; addParts)</t>
     </r>
-  </si>
-  <si>
-    <t>Observații</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
-  </si>
-  <si>
-    <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
-  </si>
-  <si>
-    <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
-  </si>
-  <si>
-    <t>EC Identification</t>
-  </si>
-  <si>
-    <t>EC-based TCs</t>
-  </si>
-  <si>
-    <t>No. EC</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Valid EC</t>
-  </si>
-  <si>
-    <t>Non-valid EC</t>
-  </si>
-  <si>
-    <t>No. TCxx_EC</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>input data</t>
-  </si>
-  <si>
-    <t>output data</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>2,3,2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>BVA Condition</t>
-  </si>
-  <si>
-    <t>BVA Condition-based TCs</t>
-  </si>
-  <si>
-    <t>Crt. No.</t>
-  </si>
-  <si>
-    <t>No TCxx_BVA</t>
-  </si>
-  <si>
-    <t>BVA condition</t>
-  </si>
-  <si>
-    <t>Correlated TC</t>
-  </si>
-  <si>
-    <t>Executable</t>
-  </si>
-  <si>
-    <t>expected result</t>
-  </si>
-  <si>
-    <t>BBT TCs</t>
-  </si>
-  <si>
-    <t>Final        TC No.</t>
-  </si>
-  <si>
-    <t>Req. ID</t>
-  </si>
-  <si>
-    <t>ECP TCs</t>
-  </si>
-  <si>
-    <t>BVA TCs</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>TC1_ECP</t>
-  </si>
-  <si>
-    <t>TC3_ECP</t>
-  </si>
-  <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>Re-testing</t>
-  </si>
-  <si>
-    <t>Regression Testing</t>
-  </si>
-  <si>
-    <t>#TCs to be run</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#TCs </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>passed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#TCs    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>failed</t>
-    </r>
-  </si>
-  <si>
-    <t>#Bugs</t>
-  </si>
-  <si>
-    <t>#Fixed Bugs</t>
-  </si>
-  <si>
-    <t>Re-tested</t>
-  </si>
-  <si>
-    <t>Varga Gabriela</t>
-  </si>
-  <si>
-    <t>Voina Marius</t>
-  </si>
-  <si>
-    <t>addProduct(String name, double price, int inStock, int min, int  max, ObservableList&lt;Part&gt; addParts)</t>
-  </si>
-  <si>
-    <t>max este mai mare sau egal dacet min</t>
-  </si>
-  <si>
-    <t>inStock este mai mare sau egal decat min</t>
-  </si>
-  <si>
-    <t>1, 3, 5, 7</t>
-  </si>
-  <si>
-    <t>nume</t>
-  </si>
-  <si>
-    <t>pret</t>
-  </si>
-  <si>
-    <t>inStock</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>addParts</t>
-  </si>
-  <si>
-    <t>produs adaugat</t>
-  </si>
-  <si>
-    <t>2, 3, 5, 7</t>
-  </si>
-  <si>
-    <t>"ghinion"</t>
-  </si>
-  <si>
-    <t>1, 3, 5, 8</t>
-  </si>
-  <si>
-    <t>cioburi de oglinda</t>
-  </si>
-  <si>
-    <t>Error message</t>
-  </si>
-  <si>
-    <t>1, 3, 6, 7</t>
-  </si>
-  <si>
-    <t>"fericire"</t>
-  </si>
-  <si>
-    <t>bani, prieteni</t>
-  </si>
-  <si>
-    <t>Error message-</t>
-  </si>
-  <si>
-    <t>"rabdare"</t>
-  </si>
-  <si>
-    <t>"IQ"</t>
-  </si>
-  <si>
-    <t>fericire, timp liber</t>
-  </si>
-  <si>
-    <t>01. min = -1</t>
-  </si>
-  <si>
-    <t>02. min = 0</t>
-  </si>
-  <si>
-    <t>03. min = 1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Parametrii </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>min, max si inStack; Condiţii pentru aceşti parametri de intrare: min, max si inStock sunt valide daca min &lt;= inStock &lt;= max, unde min, max reale pozitive, iar inStock natural.</t>
-    </r>
-  </si>
-  <si>
-    <t>min este pozitiv</t>
-  </si>
-  <si>
-    <t>min nu e pozitiv</t>
-  </si>
-  <si>
-    <t>pretul este pozitiv</t>
-  </si>
-  <si>
-    <t>pretul nu este pozitiv</t>
-  </si>
-  <si>
-    <t>min este pozitiv si &lt;= INT_MAX - 1</t>
-  </si>
-  <si>
-    <t>04. min = INT_MAX - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05. min = INT_MAX </t>
-  </si>
-  <si>
-    <t>06. min = INT_MAX + 1</t>
-  </si>
-  <si>
-    <t>min &lt;= max</t>
-  </si>
-  <si>
-    <t>08. min = max</t>
-  </si>
-  <si>
-    <t>07. min = max - 1</t>
-  </si>
-  <si>
-    <t>09. min = max + 1</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>creier</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>max &gt;= min</t>
-  </si>
-  <si>
-    <t>max &lt; min</t>
-  </si>
-  <si>
-    <t>inStock &gt;= min</t>
-  </si>
-  <si>
-    <t>inStock &lt; min</t>
-  </si>
-  <si>
-    <t>10. inStock = min-1</t>
-  </si>
-  <si>
-    <t>11. inStock = min</t>
-  </si>
-  <si>
-    <t>12. inStock = min + 1</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>TC2_ECP</t>
-  </si>
-  <si>
-    <t>TC4_ECP</t>
-  </si>
-  <si>
-    <t>TC1_BVA</t>
-  </si>
-  <si>
-    <t>TC2_BVA</t>
-  </si>
-  <si>
-    <t>TC8_BVA</t>
-  </si>
-  <si>
-    <t>TC10_BVA</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>familie</t>
-  </si>
-  <si>
-    <t>pisica neagra</t>
-  </si>
-  <si>
-    <t>Nu exista metoda equals pentru parts sau products</t>
-  </si>
-  <si>
-    <t>Implementarea metodelor</t>
-  </si>
-  <si>
-    <t>Nu se valideaza datele pe backend</t>
-  </si>
-  <si>
-    <t>Adaugarea codului de validare datelor in metoda</t>
-  </si>
-  <si>
-    <t>Prinderea exceptiilor de la validare din service in UI</t>
-  </si>
-  <si>
-    <t>Adaugrea codului</t>
   </si>
 </sst>
 </file>
@@ -1806,8 +1794,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="A9" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1853,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2">
         <v>237</v>
@@ -1864,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2">
         <v>237</v>
@@ -1929,7 +1917,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1942,27 +1930,27 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1979,7 +1967,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1997,7 +1985,7 @@
     <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -2034,7 +2022,7 @@
   <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2067,7 +2055,7 @@
     </row>
     <row r="3" spans="2:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -2078,13 +2066,13 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="G5" s="42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -2099,25 +2087,25 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="H6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="I6" s="53" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>28</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="54"/>
@@ -2126,7 +2114,7 @@
       <c r="N6" s="54"/>
       <c r="O6" s="55"/>
       <c r="P6" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="52"/>
     </row>
@@ -2135,35 +2123,35 @@
         <v>1</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
       <c r="I7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="53" t="s">
         <v>71</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>72</v>
       </c>
       <c r="O7" s="55"/>
       <c r="P7" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="55"/>
     </row>
@@ -2174,16 +2162,16 @@
       <c r="C8" s="50"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="12">
         <v>5000</v>
@@ -2198,13 +2186,13 @@
         <v>1000000</v>
       </c>
       <c r="N8" s="45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="46"/>
     </row>
@@ -2213,20 +2201,20 @@
         <v>3</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="12">
         <v>-2000</v>
@@ -2241,13 +2229,13 @@
         <v>100</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="46"/>
     </row>
@@ -2258,16 +2246,16 @@
       <c r="C10" s="50"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G10" s="10">
         <v>3</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="J10" s="12">
         <v>1000000000</v>
@@ -2282,11 +2270,11 @@
         <v>100</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O10" s="46"/>
       <c r="P10" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="46"/>
     </row>
@@ -2295,20 +2283,20 @@
         <v>5</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="10">
         <v>4</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="12">
         <v>1000000000</v>
@@ -2323,11 +2311,11 @@
         <v>100</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O11" s="46"/>
       <c r="P11" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="46"/>
     </row>
@@ -2338,7 +2326,7 @@
       <c r="C12" s="50"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="12"/>
@@ -2357,10 +2345,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10"/>
@@ -2382,7 +2370,7 @@
       <c r="C14" s="50"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="12"/>
@@ -2501,7 +2489,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D22" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
@@ -2561,8 +2549,8 @@
   </sheetPr>
   <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="C3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2598,7 +2586,7 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
@@ -2609,12 +2597,12 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="G5" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
@@ -2630,28 +2618,28 @@
     </row>
     <row r="6" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="61" t="s">
+      <c r="H6" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="J6" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="63" t="s">
-        <v>40</v>
-      </c>
       <c r="K6" s="73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="79"/>
       <c r="M6" s="79"/>
@@ -2659,7 +2647,7 @@
       <c r="O6" s="79"/>
       <c r="P6" s="74"/>
       <c r="Q6" s="73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R6" s="74"/>
     </row>
@@ -2668,35 +2656,35 @@
         <v>1</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="64"/>
       <c r="K7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="M7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="N7" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="O7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="19" t="s">
-        <v>72</v>
-      </c>
       <c r="Q7" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R7" s="74"/>
     </row>
@@ -2704,7 +2692,7 @@
       <c r="B8" s="66"/>
       <c r="C8" s="69"/>
       <c r="D8" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="19">
         <v>1</v>
@@ -2712,12 +2700,10 @@
       <c r="H8" s="13">
         <v>1</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L8" s="13">
         <v>5000</v>
@@ -2733,7 +2719,7 @@
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R8" s="77"/>
     </row>
@@ -2741,7 +2727,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="69"/>
       <c r="D9" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="19">
         <v>2</v>
@@ -2749,12 +2735,10 @@
       <c r="H9" s="13">
         <v>2</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="13">
         <v>100000</v>
@@ -2769,10 +2753,10 @@
         <v>100</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R9" s="77"/>
     </row>
@@ -2780,7 +2764,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="69"/>
       <c r="D10" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="19">
         <v>3</v>
@@ -2788,12 +2772,10 @@
       <c r="H10" s="13">
         <v>3</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>105</v>
-      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="13">
         <v>2000</v>
@@ -2808,10 +2790,10 @@
         <v>100</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R10" s="77"/>
     </row>
@@ -2819,7 +2801,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="69"/>
       <c r="D11" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="19">
         <v>4</v>
@@ -2827,12 +2809,10 @@
       <c r="H11" s="13">
         <v>4</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="13">
         <v>1000</v>
@@ -2848,7 +2828,7 @@
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11" s="77"/>
     </row>
@@ -2856,7 +2836,7 @@
       <c r="B12" s="67"/>
       <c r="C12" s="70"/>
       <c r="D12" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="13"/>
@@ -2876,10 +2856,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="13"/>
@@ -2898,7 +2878,7 @@
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="13"/>
@@ -2917,7 +2897,7 @@
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
       <c r="D15" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="13"/>
@@ -2937,10 +2917,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="13"/>
@@ -2959,7 +2939,7 @@
       <c r="B17" s="66"/>
       <c r="C17" s="69"/>
       <c r="D17" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="13"/>
@@ -2978,7 +2958,7 @@
       <c r="B18" s="66"/>
       <c r="C18" s="69"/>
       <c r="D18" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="13"/>
@@ -3148,8 +3128,8 @@
   </sheetPr>
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3177,7 +3157,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
@@ -3194,19 +3174,19 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="D4" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="E4" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="89" t="s">
-        <v>46</v>
-      </c>
       <c r="F4" s="86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="87"/>
       <c r="H4" s="87"/>
@@ -3215,7 +3195,7 @@
       <c r="K4" s="87"/>
       <c r="L4" s="88"/>
       <c r="M4" s="85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="85"/>
     </row>
@@ -3225,29 +3205,29 @@
       <c r="D5" s="99"/>
       <c r="E5" s="90"/>
       <c r="F5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="73" t="s">
         <v>71</v>
-      </c>
-      <c r="K5" s="73" t="s">
-        <v>72</v>
       </c>
       <c r="L5" s="74"/>
       <c r="M5" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -3255,16 +3235,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="13">
         <v>5000</v>
@@ -3279,16 +3259,16 @@
         <v>1000000</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3298,13 +3278,13 @@
       </c>
       <c r="C7" s="96"/>
       <c r="D7" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="13">
         <v>-2000</v>
@@ -3319,16 +3299,16 @@
         <v>100</v>
       </c>
       <c r="K7" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>78</v>
+      <c r="N7" s="36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3338,13 +3318,13 @@
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="13">
         <v>1000000000</v>
@@ -3359,14 +3339,14 @@
         <v>100</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" s="77"/>
       <c r="M8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3376,13 +3356,13 @@
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="13">
         <v>1000000000</v>
@@ -3397,14 +3377,14 @@
         <v>100</v>
       </c>
       <c r="K9" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" s="77"/>
       <c r="M9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
@@ -3414,13 +3394,13 @@
       </c>
       <c r="C10" s="96"/>
       <c r="D10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="13">
         <v>5000</v>
@@ -3437,10 +3417,10 @@
       <c r="K10" s="83"/>
       <c r="L10" s="84"/>
       <c r="M10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
@@ -3450,13 +3430,13 @@
       </c>
       <c r="C11" s="96"/>
       <c r="D11" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="13">
         <v>100000</v>
@@ -3471,14 +3451,14 @@
         <v>100</v>
       </c>
       <c r="K11" s="83" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L11" s="84"/>
       <c r="M11" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3488,13 +3468,13 @@
       </c>
       <c r="C12" s="96"/>
       <c r="D12" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="13">
         <v>2000</v>
@@ -3509,14 +3489,14 @@
         <v>100</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L12" s="84"/>
       <c r="M12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3526,13 +3506,13 @@
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="13">
         <v>1000</v>
@@ -3549,10 +3529,10 @@
       <c r="K13" s="83"/>
       <c r="L13" s="84"/>
       <c r="M13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -3572,7 +3552,7 @@
     </row>
     <row r="15" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -3591,23 +3571,23 @@
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C17" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
       <c r="F17" s="94"/>
       <c r="G17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="92" t="s">
         <v>52</v>
-      </c>
-      <c r="H17" s="92" t="s">
-        <v>53</v>
       </c>
       <c r="I17" s="95"/>
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
       <c r="L17" s="94"/>
       <c r="M17" s="92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N17" s="95"/>
       <c r="O17" s="93"/>
@@ -3615,47 +3595,47 @@
     </row>
     <row r="18" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="E18" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="F18" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="G18" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="110" t="s">
+      <c r="H18" s="111" t="s">
         <v>59</v>
-      </c>
-      <c r="H18" s="111" t="s">
-        <v>60</v>
       </c>
       <c r="I18" s="98"/>
       <c r="J18" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="85" t="s">
+      <c r="L18" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="109" t="s">
-        <v>57</v>
-      </c>
       <c r="M18" s="100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N18" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="85" t="s">
+      <c r="P18" s="109" t="s">
         <v>56</v>
-      </c>
-      <c r="P18" s="109" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
@@ -3677,48 +3657,48 @@
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="32">
         <v>8</v>
       </c>
       <c r="D20" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G20" s="105" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H20" s="103"/>
       <c r="I20" s="104"/>
       <c r="J20" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K20" s="33">
         <v>5</v>
       </c>
       <c r="L20" s="34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" s="33">
         <v>0</v>
       </c>
       <c r="P20" s="34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="32">
         <v>8</v>
@@ -3730,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G21" s="105" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H21" s="103"/>
       <c r="I21" s="104"/>
@@ -3759,7 +3739,7 @@
     </row>
     <row r="22" spans="2:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B22" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="32">
         <v>8</v>
@@ -3771,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G22" s="105" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H22" s="103"/>
       <c r="I22" s="104"/>
